--- a/Code/Results/Cases/Case_8_2/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_2/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.565131224454433</v>
+        <v>2.557419122916542</v>
       </c>
       <c r="C2">
-        <v>0.6995847853748103</v>
+        <v>0.821951478944186</v>
       </c>
       <c r="D2">
-        <v>0.01997367784489867</v>
+        <v>0.008744789894704397</v>
       </c>
       <c r="E2">
-        <v>0.01757711000128737</v>
+        <v>0.02667836586413763</v>
       </c>
       <c r="F2">
-        <v>3.089883565495953</v>
+        <v>2.142980614272133</v>
       </c>
       <c r="G2">
-        <v>0.0008457528179596892</v>
+        <v>0.04059956744138793</v>
       </c>
       <c r="H2">
-        <v>0.02697397816299385</v>
+        <v>0.01421027187175844</v>
       </c>
       <c r="I2">
-        <v>0.02994721698567115</v>
+        <v>0.01336172922355061</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.815861208184387</v>
+        <v>1.139190698945832</v>
       </c>
       <c r="L2">
-        <v>0.0484551045661068</v>
+        <v>0.4560590548002708</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.3976639199903147</v>
       </c>
       <c r="N2">
-        <v>0.1858699376367312</v>
+        <v>0.05728062092825326</v>
       </c>
       <c r="O2">
-        <v>0.4537930017811576</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2324909020408228</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.473033622245687</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.242230191799933</v>
+        <v>2.229895947498562</v>
       </c>
       <c r="C3">
-        <v>0.6064335303339021</v>
+        <v>0.7113471695821261</v>
       </c>
       <c r="D3">
-        <v>0.01730218833097297</v>
+        <v>0.008112897066597569</v>
       </c>
       <c r="E3">
-        <v>0.01537203593234437</v>
+        <v>0.02495357663368125</v>
       </c>
       <c r="F3">
-        <v>2.852312352727267</v>
+        <v>1.998371521245176</v>
       </c>
       <c r="G3">
-        <v>0.0008515094343176702</v>
+        <v>0.05034510037484319</v>
       </c>
       <c r="H3">
-        <v>0.03429406250512601</v>
+        <v>0.01838355203644748</v>
       </c>
       <c r="I3">
-        <v>0.03812443388518139</v>
+        <v>0.01736869483722447</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.693556759510841</v>
+        <v>1.082783901170956</v>
       </c>
       <c r="L3">
-        <v>0.04387130601620326</v>
+        <v>0.4438871000142086</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3691730115700125</v>
       </c>
       <c r="N3">
-        <v>0.1656486430057953</v>
+        <v>0.05363314752960591</v>
       </c>
       <c r="O3">
-        <v>0.3982269514969587</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2078418110993994</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4136439369269311</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.044666491627481</v>
+        <v>2.028743138764355</v>
       </c>
       <c r="C4">
-        <v>0.5500715712469741</v>
+        <v>0.6439660508666236</v>
       </c>
       <c r="D4">
-        <v>0.01565533970734734</v>
+        <v>0.007712526559620514</v>
       </c>
       <c r="E4">
-        <v>0.0140514678788648</v>
+        <v>0.023894496871673</v>
       </c>
       <c r="F4">
-        <v>2.706555520347436</v>
+        <v>1.908898537993451</v>
       </c>
       <c r="G4">
-        <v>0.0008551598787504139</v>
+        <v>0.05706372798698611</v>
       </c>
       <c r="H4">
-        <v>0.03937867267103412</v>
+        <v>0.02130790269378946</v>
       </c>
       <c r="I4">
-        <v>0.04384333667845652</v>
+        <v>0.02022789242096712</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.618104255610547</v>
+        <v>1.047480111230591</v>
       </c>
       <c r="L4">
-        <v>0.04108253138873663</v>
+        <v>0.4357785876551503</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3523658031802697</v>
       </c>
       <c r="N4">
-        <v>0.1533364262987575</v>
+        <v>0.05138354339362561</v>
       </c>
       <c r="O4">
-        <v>0.3642691587184004</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1928275568318156</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3772498039822239</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.964241632242704</v>
+        <v>1.946674041376127</v>
       </c>
       <c r="C5">
-        <v>0.5278127327821096</v>
+        <v>0.6170879663806375</v>
       </c>
       <c r="D5">
-        <v>0.01487481029429816</v>
+        <v>0.007507175383688391</v>
       </c>
       <c r="E5">
-        <v>0.01351633785037976</v>
+        <v>0.0234595086169751</v>
       </c>
       <c r="F5">
-        <v>2.642584406401681</v>
+        <v>1.869098681595219</v>
       </c>
       <c r="G5">
-        <v>0.0008566891102195902</v>
+        <v>0.06000052942330614</v>
       </c>
       <c r="H5">
-        <v>0.04161058335045453</v>
+        <v>0.02259644660895754</v>
       </c>
       <c r="I5">
-        <v>0.04645906415084156</v>
+        <v>0.02160103201617058</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.583940157643795</v>
+        <v>1.030794699739438</v>
       </c>
       <c r="L5">
-        <v>0.03992380669562667</v>
+        <v>0.4314388692839657</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3449718509097082</v>
       </c>
       <c r="N5">
-        <v>0.1485034025217615</v>
+        <v>0.05045988279500424</v>
       </c>
       <c r="O5">
-        <v>0.350563795646778</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1868823681624363</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3625147256482393</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.950822444111623</v>
+        <v>1.932962229056272</v>
       </c>
       <c r="C6">
-        <v>0.5247665800024208</v>
+        <v>0.6131974329614707</v>
       </c>
       <c r="D6">
-        <v>0.01461472770455075</v>
+        <v>0.00742570016176991</v>
       </c>
       <c r="E6">
-        <v>0.01342314196133909</v>
+        <v>0.02338383685231271</v>
       </c>
       <c r="F6">
-        <v>2.626378254955029</v>
+        <v>1.858626912493747</v>
       </c>
       <c r="G6">
-        <v>0.0008569593480716397</v>
+        <v>0.06052497108430055</v>
       </c>
       <c r="H6">
-        <v>0.04201159514474728</v>
+        <v>0.02282736787510165</v>
       </c>
       <c r="I6">
-        <v>0.04705408774306896</v>
+        <v>0.02198029352439601</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.574216278297769</v>
+        <v>1.025419126794183</v>
       </c>
       <c r="L6">
-        <v>0.03969988467604368</v>
+        <v>0.4296414582066959</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3428820004921036</v>
       </c>
       <c r="N6">
-        <v>0.1478999074412215</v>
+        <v>0.05030259609764709</v>
       </c>
       <c r="O6">
-        <v>0.348410557277596</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1860752421055665</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3601688907693941</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.043373464398314</v>
+        <v>2.027435371891045</v>
       </c>
       <c r="C7">
-        <v>0.5515183035195719</v>
+        <v>0.6402277803921947</v>
       </c>
       <c r="D7">
-        <v>0.01528694040841572</v>
+        <v>0.007270688229931821</v>
       </c>
       <c r="E7">
-        <v>0.01403117039772095</v>
+        <v>0.02379004449892541</v>
       </c>
       <c r="F7">
-        <v>2.69041913225449</v>
+        <v>1.879316488864959</v>
       </c>
       <c r="G7">
-        <v>0.0008552195598048125</v>
+        <v>0.05784157225630482</v>
       </c>
       <c r="H7">
-        <v>0.03946566306621424</v>
+        <v>0.02141543215216424</v>
       </c>
       <c r="I7">
-        <v>0.04426780276468101</v>
+        <v>0.02068847916246686</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.606576988931295</v>
+        <v>1.029347400870336</v>
       </c>
       <c r="L7">
-        <v>0.04097926210556913</v>
+        <v>0.4284354221110291</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3461621446313714</v>
       </c>
       <c r="N7">
-        <v>0.1538122545909602</v>
+        <v>0.0512806127001646</v>
       </c>
       <c r="O7">
-        <v>0.3644132669258298</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1930732196901346</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.377256996983526</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.453308185953631</v>
+        <v>2.444164396808731</v>
       </c>
       <c r="C8">
-        <v>0.6696016941042728</v>
+        <v>0.7691759595374208</v>
       </c>
       <c r="D8">
-        <v>0.01857423440669237</v>
+        <v>0.007388634374031255</v>
       </c>
       <c r="E8">
-        <v>0.01679075640196093</v>
+        <v>0.02577220151721527</v>
       </c>
       <c r="F8">
-        <v>2.987624171148511</v>
+        <v>2.018387086971998</v>
       </c>
       <c r="G8">
-        <v>0.0008477641006677623</v>
+        <v>0.04660582500191612</v>
       </c>
       <c r="H8">
-        <v>0.02943522068009985</v>
+        <v>0.01576889780274449</v>
       </c>
       <c r="I8">
-        <v>0.03307389040204622</v>
+        <v>0.01528605107889458</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.759046849484761</v>
+        <v>1.075170939644366</v>
       </c>
       <c r="L8">
-        <v>0.04674760666279631</v>
+        <v>0.4344982421781509</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3717507469910544</v>
       </c>
       <c r="N8">
-        <v>0.1795960454889212</v>
+        <v>0.05575349549792996</v>
       </c>
       <c r="O8">
-        <v>0.4350304564869703</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2240683957707859</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4526553148652255</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.264824645943577</v>
+        <v>3.262142245988798</v>
       </c>
       <c r="C9">
-        <v>0.9057104220111114</v>
+        <v>1.04188113570865</v>
       </c>
       <c r="D9">
-        <v>0.02566083958054577</v>
+        <v>0.008785195765208087</v>
       </c>
       <c r="E9">
-        <v>0.02256571928396056</v>
+        <v>0.03001581528638297</v>
       </c>
       <c r="F9">
-        <v>3.600526605267646</v>
+        <v>2.37159805696875</v>
       </c>
       <c r="G9">
-        <v>0.0008339661240767669</v>
+        <v>0.02674495726403148</v>
       </c>
       <c r="H9">
-        <v>0.01468000638846456</v>
+        <v>0.007479098525359495</v>
       </c>
       <c r="I9">
-        <v>0.01646196036872905</v>
+        <v>0.007237739482905958</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.075906959638772</v>
+        <v>1.21124359266004</v>
       </c>
       <c r="L9">
-        <v>0.05855236384535312</v>
+        <v>0.4620835517645432</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4452004818776487</v>
       </c>
       <c r="N9">
-        <v>0.2301536209803459</v>
+        <v>0.06479123714136392</v>
       </c>
       <c r="O9">
-        <v>0.5744942460911915</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2856314096343908</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.601020209764151</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.870748331662526</v>
+        <v>3.867475159446428</v>
       </c>
       <c r="C10">
-        <v>1.086358244232372</v>
+        <v>1.214648823720722</v>
       </c>
       <c r="D10">
-        <v>0.03009009179928768</v>
+        <v>0.008326917867616856</v>
       </c>
       <c r="E10">
-        <v>0.02761918313653666</v>
+        <v>0.03312495861079157</v>
       </c>
       <c r="F10">
-        <v>3.968668216322044</v>
+        <v>2.471559548029973</v>
       </c>
       <c r="G10">
-        <v>0.000824548816099308</v>
+        <v>0.0249067141065229</v>
       </c>
       <c r="H10">
-        <v>0.007809390924220505</v>
+        <v>0.003973292219916047</v>
       </c>
       <c r="I10">
-        <v>0.008744022521431027</v>
+        <v>0.004024809016956787</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.252379893228493</v>
+        <v>1.218513603262068</v>
       </c>
       <c r="L10">
-        <v>0.06715022323916386</v>
+        <v>0.4473955118943209</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.4674229530318499</v>
       </c>
       <c r="N10">
-        <v>0.2610529090974154</v>
+        <v>0.07183943659596537</v>
       </c>
       <c r="O10">
-        <v>0.6742482727707255</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3220530174342713</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7055813953195127</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.173983724099003</v>
+        <v>4.171840798310541</v>
       </c>
       <c r="C11">
-        <v>1.172997515585337</v>
+        <v>1.226161476429468</v>
       </c>
       <c r="D11">
-        <v>0.02623221495360184</v>
+        <v>0.007116337232860204</v>
       </c>
       <c r="E11">
-        <v>0.03590192641737033</v>
+        <v>0.03864386574767309</v>
       </c>
       <c r="F11">
-        <v>3.455599175296811</v>
+        <v>1.95397475385964</v>
       </c>
       <c r="G11">
-        <v>0.0008220837406931168</v>
+        <v>0.05818344434943157</v>
       </c>
       <c r="H11">
-        <v>0.02573479013048185</v>
+        <v>0.02248916391078026</v>
       </c>
       <c r="I11">
-        <v>0.007801812422968624</v>
+        <v>0.004202121109541324</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.897042357171614</v>
+        <v>0.9122742254632072</v>
       </c>
       <c r="L11">
-        <v>0.07436972381643692</v>
+        <v>0.332991293437459</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3538932821511409</v>
       </c>
       <c r="N11">
-        <v>0.2156244101368117</v>
+        <v>0.08784452971238821</v>
       </c>
       <c r="O11">
-        <v>0.6828912439724348</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2647979801270282</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7108473424960522</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.302800563854248</v>
+        <v>4.302698497466508</v>
       </c>
       <c r="C12">
-        <v>1.204740968746762</v>
+        <v>1.214834344328949</v>
       </c>
       <c r="D12">
-        <v>0.02295351202474194</v>
+        <v>0.007499243670665567</v>
       </c>
       <c r="E12">
-        <v>0.04397151791902942</v>
+        <v>0.04460984851598582</v>
       </c>
       <c r="F12">
-        <v>2.999042501954762</v>
+        <v>1.610366663330112</v>
       </c>
       <c r="G12">
-        <v>0.0008217681529032203</v>
+        <v>0.08284140190854572</v>
       </c>
       <c r="H12">
-        <v>0.06464737965513478</v>
+        <v>0.06139058480709991</v>
       </c>
       <c r="I12">
-        <v>0.00767520181469461</v>
+        <v>0.004183983409994596</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.60376939696134</v>
+        <v>0.7262592968919392</v>
       </c>
       <c r="L12">
-        <v>0.08792159138984701</v>
+        <v>0.2669932250156073</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2811642634366933</v>
       </c>
       <c r="N12">
-        <v>0.1743121867507753</v>
+        <v>0.1083643440343209</v>
       </c>
       <c r="O12">
-        <v>0.6679353204735108</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2140613001119931</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6925552057144841</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.303005045829934</v>
+        <v>4.305927703256373</v>
       </c>
       <c r="C13">
-        <v>1.198312576879005</v>
+        <v>1.200268947165</v>
       </c>
       <c r="D13">
-        <v>0.01931393304550255</v>
+        <v>0.007899154400190955</v>
       </c>
       <c r="E13">
-        <v>0.05217261920633653</v>
+        <v>0.05213468497065676</v>
       </c>
       <c r="F13">
-        <v>2.537189719998423</v>
+        <v>1.375542676611516</v>
       </c>
       <c r="G13">
-        <v>0.0008231469447831304</v>
+        <v>0.07791040685927797</v>
       </c>
       <c r="H13">
-        <v>0.1214301980634218</v>
+        <v>0.1176397694202223</v>
       </c>
       <c r="I13">
-        <v>0.00858688444446809</v>
+        <v>0.00448807264115203</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.324793307273154</v>
+        <v>0.610670117654756</v>
       </c>
       <c r="L13">
-        <v>0.1067037964850073</v>
+        <v>0.228032324419484</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2333999553534341</v>
       </c>
       <c r="N13">
-        <v>0.1349556541492589</v>
+        <v>0.1324414050252329</v>
       </c>
       <c r="O13">
-        <v>0.6346108006253601</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1666153953249747</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6558484634108481</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.244933570689739</v>
+        <v>4.250190877252692</v>
       </c>
       <c r="C14">
-        <v>1.177204434286637</v>
+        <v>1.188403999489708</v>
       </c>
       <c r="D14">
-        <v>0.01657499356837633</v>
+        <v>0.008051734766790108</v>
       </c>
       <c r="E14">
-        <v>0.0581721561123274</v>
+        <v>0.05863693044442719</v>
       </c>
       <c r="F14">
-        <v>2.214984305009395</v>
+        <v>1.249029518141555</v>
       </c>
       <c r="G14">
-        <v>0.0008248754848412673</v>
+        <v>0.06224604676170387</v>
       </c>
       <c r="H14">
-        <v>0.1718981253485765</v>
+        <v>0.1674702836016735</v>
       </c>
       <c r="I14">
-        <v>0.009871440111162144</v>
+        <v>0.004988373945461255</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.138756306820945</v>
+        <v>0.5538232639256293</v>
       </c>
       <c r="L14">
-        <v>0.1233130165372458</v>
+        <v>0.2097047861392838</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2087260758064637</v>
       </c>
       <c r="N14">
-        <v>0.1092956389649089</v>
+        <v>0.1514519041078941</v>
       </c>
       <c r="O14">
-        <v>0.6032764079452662</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1358917688949219</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.622067985322829</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.203132244917072</v>
+        <v>4.20903582547794</v>
       </c>
       <c r="C15">
-        <v>1.164706118085689</v>
+        <v>1.184464590642108</v>
       </c>
       <c r="D15">
-        <v>0.01569579327304638</v>
+        <v>0.008073962819498792</v>
       </c>
       <c r="E15">
-        <v>0.0593516398734053</v>
+        <v>0.06039205273999926</v>
       </c>
       <c r="F15">
-        <v>2.128040762506046</v>
+        <v>1.228723881131799</v>
       </c>
       <c r="G15">
-        <v>0.0008256902039987901</v>
+        <v>0.05426132040224374</v>
       </c>
       <c r="H15">
-        <v>0.1849491053373811</v>
+        <v>0.1802139549332935</v>
       </c>
       <c r="I15">
-        <v>0.01060880855901747</v>
+        <v>0.005359543275200274</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.090753752103566</v>
+        <v>0.5464758972591639</v>
       </c>
       <c r="L15">
-        <v>0.1273423520541286</v>
+        <v>0.2077262532880404</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2049543123225206</v>
       </c>
       <c r="N15">
-        <v>0.1030835941639623</v>
+        <v>0.1557250540011808</v>
       </c>
       <c r="O15">
-        <v>0.592007834589765</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1285324782871129</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6101329852384865</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.940151574801291</v>
+        <v>3.946350089143664</v>
       </c>
       <c r="C16">
-        <v>1.088371171776089</v>
+        <v>1.160559121324866</v>
       </c>
       <c r="D16">
-        <v>0.01434429717494368</v>
+        <v>0.008464331327967756</v>
       </c>
       <c r="E16">
-        <v>0.05513177413921611</v>
+        <v>0.05971150337353848</v>
       </c>
       <c r="F16">
-        <v>2.06657145046745</v>
+        <v>1.33273711077247</v>
       </c>
       <c r="G16">
-        <v>0.0008294409613821823</v>
+        <v>0.02813407299627357</v>
       </c>
       <c r="H16">
-        <v>0.1750373903634852</v>
+        <v>0.1687670565080595</v>
       </c>
       <c r="I16">
-        <v>0.01372364633065803</v>
+        <v>0.006608636887214914</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.07280546892656</v>
+        <v>0.6111548324064842</v>
       </c>
       <c r="L16">
-        <v>0.1193398832946997</v>
+        <v>0.23314502971186</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2267045668141314</v>
       </c>
       <c r="N16">
-        <v>0.09937767091649619</v>
+        <v>0.1459203540448968</v>
       </c>
       <c r="O16">
-        <v>0.5569376244536244</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1251729147914915</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5744485921648845</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.769967534280681</v>
+        <v>3.775034634586575</v>
       </c>
       <c r="C17">
-        <v>1.041412249972097</v>
+        <v>1.140553725554867</v>
       </c>
       <c r="D17">
-        <v>0.0147204431114929</v>
+        <v>0.008900309819395602</v>
       </c>
       <c r="E17">
-        <v>0.04860040173330837</v>
+        <v>0.05483192171790208</v>
       </c>
       <c r="F17">
-        <v>2.185244151753793</v>
+        <v>1.470914405014241</v>
       </c>
       <c r="G17">
-        <v>0.0008314147587766634</v>
+        <v>0.02345470780989434</v>
       </c>
       <c r="H17">
-        <v>0.1389006185973898</v>
+        <v>0.1317753764425902</v>
       </c>
       <c r="I17">
-        <v>0.0155251866202839</v>
+        <v>0.007378420034990008</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.153768338806962</v>
+        <v>0.6895496773133729</v>
       </c>
       <c r="L17">
-        <v>0.1036757676597944</v>
+        <v>0.2630319549521261</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2548708880831221</v>
       </c>
       <c r="N17">
-        <v>0.1095627633312972</v>
+        <v>0.1282846233192245</v>
       </c>
       <c r="O17">
-        <v>0.5466154373664978</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1381796049530308</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5648279991076066</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.659829169098657</v>
+        <v>3.663008094478755</v>
       </c>
       <c r="C18">
-        <v>1.012343456248459</v>
+        <v>1.131451914166064</v>
       </c>
       <c r="D18">
-        <v>0.01700112175938884</v>
+        <v>0.009240230456233789</v>
       </c>
       <c r="E18">
-        <v>0.04030381564922259</v>
+        <v>0.0472247111541293</v>
       </c>
       <c r="F18">
-        <v>2.498652567799539</v>
+        <v>1.698486392746034</v>
       </c>
       <c r="G18">
-        <v>0.000831969062614627</v>
+        <v>0.02239586082008982</v>
       </c>
       <c r="H18">
-        <v>0.0864230151160541</v>
+        <v>0.07911814506831405</v>
       </c>
       <c r="I18">
-        <v>0.01571889116073422</v>
+        <v>0.007277668792498915</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.349589404854441</v>
+        <v>0.8138672929651207</v>
       </c>
       <c r="L18">
-        <v>0.08372134360137551</v>
+        <v>0.3090440619415489</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3016067636115878</v>
       </c>
       <c r="N18">
-        <v>0.1348921102012426</v>
+        <v>0.1051924634071781</v>
       </c>
       <c r="O18">
-        <v>0.555908664633165</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1695118235936732</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5763577293111837</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.605371829003047</v>
+        <v>3.606459552343779</v>
       </c>
       <c r="C19">
-        <v>1.003142074735763</v>
+        <v>1.139454776202456</v>
       </c>
       <c r="D19">
-        <v>0.02040359126266011</v>
+        <v>0.009371376101892537</v>
       </c>
       <c r="E19">
-        <v>0.03255206195094473</v>
+        <v>0.03963110327847019</v>
       </c>
       <c r="F19">
-        <v>2.951150446724498</v>
+        <v>1.992648760065606</v>
       </c>
       <c r="G19">
-        <v>0.0008312877702606877</v>
+        <v>0.02139392185319311</v>
       </c>
       <c r="H19">
-        <v>0.04011443933858061</v>
+        <v>0.03328873321057557</v>
       </c>
       <c r="I19">
-        <v>0.01511647125800675</v>
+        <v>0.007127077361185563</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.63082117498341</v>
+        <v>0.9737920769504171</v>
       </c>
       <c r="L19">
-        <v>0.06840501299711121</v>
+        <v>0.3673071566711528</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3629789881702621</v>
       </c>
       <c r="N19">
-        <v>0.1750703293395759</v>
+        <v>0.08490261510569042</v>
       </c>
       <c r="O19">
-        <v>0.5809196916633468</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2185456165694433</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6047206227069353</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.710182044394685</v>
+        <v>3.707885868412404</v>
       </c>
       <c r="C20">
-        <v>1.043963608765921</v>
+        <v>1.192439552050814</v>
       </c>
       <c r="D20">
-        <v>0.02776009230743171</v>
+        <v>0.008973784994187994</v>
       </c>
       <c r="E20">
-        <v>0.02623290284980229</v>
+        <v>0.03263344358069986</v>
       </c>
       <c r="F20">
-        <v>3.820517452916107</v>
+        <v>2.476301339758479</v>
       </c>
       <c r="G20">
-        <v>0.0008271088511894345</v>
+        <v>0.01979789659537357</v>
       </c>
       <c r="H20">
-        <v>0.009446074737217369</v>
+        <v>0.004700129479312753</v>
       </c>
       <c r="I20">
-        <v>0.01146414540957785</v>
+        <v>0.005685249740412068</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.169332427872476</v>
+        <v>1.231522939462948</v>
       </c>
       <c r="L20">
-        <v>0.06455752921548008</v>
+        <v>0.4565330676022583</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4673037284842252</v>
       </c>
       <c r="N20">
-        <v>0.2543032037861792</v>
+        <v>0.07029042980056666</v>
       </c>
       <c r="O20">
-        <v>0.6487850572094587</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3142493855665691</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6790515691809489</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.173578606428521</v>
+        <v>4.166648945486429</v>
       </c>
       <c r="C21">
-        <v>1.183916653114863</v>
+        <v>1.231212615200604</v>
       </c>
       <c r="D21">
-        <v>0.03244008036647017</v>
+        <v>0.006326619154568114</v>
       </c>
       <c r="E21">
-        <v>0.0294859538216361</v>
+        <v>0.03284226621926756</v>
       </c>
       <c r="F21">
-        <v>4.236577031837868</v>
+        <v>2.305283380021379</v>
       </c>
       <c r="G21">
-        <v>0.0008196809098420544</v>
+        <v>0.07813586099047853</v>
       </c>
       <c r="H21">
-        <v>0.004709293829930905</v>
+        <v>0.002508919733225312</v>
       </c>
       <c r="I21">
-        <v>0.006521748469938693</v>
+        <v>0.003968652027679376</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.390599784650647</v>
+        <v>1.098834978192329</v>
       </c>
       <c r="L21">
-        <v>0.07200876159153458</v>
+        <v>0.3972776642158777</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.4296021962381857</v>
       </c>
       <c r="N21">
-        <v>0.2893339671168462</v>
+        <v>0.07327154188530116</v>
       </c>
       <c r="O21">
-        <v>0.7323025760479069</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3525882538532699</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.7650191313044772</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.480596361652658</v>
+        <v>4.468967262963702</v>
       </c>
       <c r="C22">
-        <v>1.274812555194728</v>
+        <v>1.247298950923891</v>
       </c>
       <c r="D22">
-        <v>0.03568310154349064</v>
+        <v>0.006961112981575646</v>
       </c>
       <c r="E22">
-        <v>0.03198364790240227</v>
+        <v>0.03344143248602283</v>
       </c>
       <c r="F22">
-        <v>4.490530232913727</v>
+        <v>2.167557291622046</v>
       </c>
       <c r="G22">
-        <v>0.0008149623042641221</v>
+        <v>0.165098951024838</v>
       </c>
       <c r="H22">
-        <v>0.002619667028664896</v>
+        <v>0.001539016590942799</v>
       </c>
       <c r="I22">
-        <v>0.003971776485033551</v>
+        <v>0.002802414589549329</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.524588148351043</v>
+        <v>1.001871954493687</v>
       </c>
       <c r="L22">
-        <v>0.07695511085246309</v>
+        <v>0.3567332837059851</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3995691681311655</v>
       </c>
       <c r="N22">
-        <v>0.3079858446908474</v>
+        <v>0.07571550683364769</v>
       </c>
       <c r="O22">
-        <v>0.7847162155492384</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3723515212435871</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8184000366683932</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.316955452772561</v>
+        <v>4.308093804843509</v>
       </c>
       <c r="C23">
-        <v>1.224039665821749</v>
+        <v>1.250013192274764</v>
       </c>
       <c r="D23">
-        <v>0.03438208116049424</v>
+        <v>0.006361166879281122</v>
       </c>
       <c r="E23">
-        <v>0.03066049536191429</v>
+        <v>0.03325809654910827</v>
       </c>
       <c r="F23">
-        <v>4.373137344730651</v>
+        <v>2.293999083081843</v>
       </c>
       <c r="G23">
-        <v>0.000817433541427423</v>
+        <v>0.1001142100995693</v>
       </c>
       <c r="H23">
-        <v>0.003638391663692619</v>
+        <v>0.001985620822204437</v>
       </c>
       <c r="I23">
-        <v>0.004888486837283601</v>
+        <v>0.002965408823171423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.466276570627613</v>
+        <v>1.083308218558535</v>
       </c>
       <c r="L23">
-        <v>0.07442247035054361</v>
+        <v>0.3884282486946802</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.427741025616065</v>
       </c>
       <c r="N23">
-        <v>0.2973465666243413</v>
+        <v>0.07451368390161939</v>
       </c>
       <c r="O23">
-        <v>0.7563218780636731</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3616517745454502</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7898272096048657</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.700862091309716</v>
+        <v>3.698276797520975</v>
       </c>
       <c r="C24">
-        <v>1.03847569775354</v>
+        <v>1.189665055041132</v>
       </c>
       <c r="D24">
-        <v>0.02885291081648944</v>
+        <v>0.009200016601742078</v>
       </c>
       <c r="E24">
-        <v>0.02581705740123397</v>
+        <v>0.03224954860262841</v>
       </c>
       <c r="F24">
-        <v>3.903595100170747</v>
+        <v>2.532248887401408</v>
       </c>
       <c r="G24">
-        <v>0.0008270046555407616</v>
+        <v>0.01949771155082658</v>
       </c>
       <c r="H24">
-        <v>0.009140330174338324</v>
+        <v>0.004469088317439418</v>
       </c>
       <c r="I24">
-        <v>0.01081563587455925</v>
+        <v>0.005010596023292457</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.225780088269516</v>
+        <v>1.265442884456277</v>
       </c>
       <c r="L24">
-        <v>0.06491720304722692</v>
+        <v>0.4689293007366331</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4802834512273435</v>
       </c>
       <c r="N24">
-        <v>0.2585382547750612</v>
+        <v>0.06961039134176872</v>
       </c>
       <c r="O24">
-        <v>0.6502159604769702</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3197206462530602</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6809277896298056</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.043745595649114</v>
+        <v>3.040233582296253</v>
       </c>
       <c r="C25">
-        <v>0.8440434447360587</v>
+        <v>0.9775745417840369</v>
       </c>
       <c r="D25">
-        <v>0.02308000716601555</v>
+        <v>0.008609152857614433</v>
       </c>
       <c r="E25">
-        <v>0.02092959594897792</v>
+        <v>0.02897397017430858</v>
       </c>
       <c r="F25">
-        <v>3.406335797760164</v>
+        <v>2.283991314043334</v>
       </c>
       <c r="G25">
-        <v>0.0008376736427598768</v>
+        <v>0.03013482813267476</v>
       </c>
       <c r="H25">
-        <v>0.01815575217861154</v>
+        <v>0.009350093767453022</v>
       </c>
       <c r="I25">
-        <v>0.02085575039413001</v>
+        <v>0.009575589845099763</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.970129033737166</v>
+        <v>1.177667476544883</v>
       </c>
       <c r="L25">
-        <v>0.05513448561692846</v>
+        <v>0.4561790020119645</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4257159951736966</v>
       </c>
       <c r="N25">
-        <v>0.2173482747065094</v>
+        <v>0.06245424400926503</v>
       </c>
       <c r="O25">
-        <v>0.5371410848985789</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2699893391459938</v>
       </c>
       <c r="Q25">
+        <v>0.5613819779879989</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
